--- a/T4/India.xlsx
+++ b/T4/India.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,5478 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C2" t="n">
+        <v>357021120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13505495</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53571092</v>
+      </c>
+      <c r="F2" t="n">
+        <v>135362080</v>
+      </c>
+      <c r="G2" t="n">
+        <v>203964830</v>
+      </c>
+      <c r="H2" t="n">
+        <v>210586080</v>
+      </c>
+      <c r="I2" t="n">
+        <v>221658820</v>
+      </c>
+      <c r="J2" t="n">
+        <v>199492220</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11389238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40065600</v>
+      </c>
+      <c r="M2" t="n">
+        <v>42119628</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39671370</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36204320</v>
+      </c>
+      <c r="P2" t="n">
+        <v>61014944</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>47504350</v>
+      </c>
+      <c r="R2" t="n">
+        <v>34983436</v>
+      </c>
+      <c r="S2" t="n">
+        <v>22846976</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12546090</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5319007</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1157151</v>
+      </c>
+      <c r="W2" t="n">
+        <v>82539</v>
+      </c>
+      <c r="X2" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C3" t="n">
+        <v>364922370</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13860960</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56052868</v>
+      </c>
+      <c r="F3" t="n">
+        <v>138887060</v>
+      </c>
+      <c r="G3" t="n">
+        <v>208622080</v>
+      </c>
+      <c r="H3" t="n">
+        <v>214664400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>226034620</v>
+      </c>
+      <c r="J3" t="n">
+        <v>203534420</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12230602</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42191908</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42858160</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39976024</v>
+      </c>
+      <c r="O3" t="n">
+        <v>36763348</v>
+      </c>
+      <c r="P3" t="n">
+        <v>62092216</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>48311130</v>
+      </c>
+      <c r="R3" t="n">
+        <v>35815410</v>
+      </c>
+      <c r="S3" t="n">
+        <v>23542152</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12975810</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5294938</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1163079</v>
+      </c>
+      <c r="W3" t="n">
+        <v>76551</v>
+      </c>
+      <c r="X3" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C4" t="n">
+        <v>372997200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14233779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58611764</v>
+      </c>
+      <c r="F4" t="n">
+        <v>142553310</v>
+      </c>
+      <c r="G4" t="n">
+        <v>213434850</v>
+      </c>
+      <c r="H4" t="n">
+        <v>218659870</v>
+      </c>
+      <c r="I4" t="n">
+        <v>230442860</v>
+      </c>
+      <c r="J4" t="n">
+        <v>207574620</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12570376</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44377984</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43740240</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40201304</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37351524</v>
+      </c>
+      <c r="P4" t="n">
+        <v>63171530</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>49137708</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36681000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24263036</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13362302</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5235460</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1168079</v>
+      </c>
+      <c r="W4" t="n">
+        <v>72230</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1021.99994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>381227700</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14616897</v>
+      </c>
+      <c r="E5" t="n">
+        <v>61251864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>146441680</v>
+      </c>
+      <c r="G5" t="n">
+        <v>218415650</v>
+      </c>
+      <c r="H5" t="n">
+        <v>222527570</v>
+      </c>
+      <c r="I5" t="n">
+        <v>234784910</v>
+      </c>
+      <c r="J5" t="n">
+        <v>211551870</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12929606</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46634964</v>
+      </c>
+      <c r="M5" t="n">
+        <v>44760676</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40429148</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37914550</v>
+      </c>
+      <c r="P5" t="n">
+        <v>64217450</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>49961160</v>
+      </c>
+      <c r="R5" t="n">
+        <v>37540668</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24991400</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13717936</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5196059</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1176141</v>
+      </c>
+      <c r="W5" t="n">
+        <v>69551</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C6" t="n">
+        <v>389731400</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14993405</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63481264</v>
+      </c>
+      <c r="F6" t="n">
+        <v>150662880</v>
+      </c>
+      <c r="G6" t="n">
+        <v>223621580</v>
+      </c>
+      <c r="H6" t="n">
+        <v>226363890</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239067540</v>
+      </c>
+      <c r="J6" t="n">
+        <v>215572460</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13302754</v>
+      </c>
+      <c r="L6" t="n">
+        <v>48487856</v>
+      </c>
+      <c r="M6" t="n">
+        <v>46396296</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40785324</v>
+      </c>
+      <c r="O6" t="n">
+        <v>38383956</v>
+      </c>
+      <c r="P6" t="n">
+        <v>65244204</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>50786696</v>
+      </c>
+      <c r="R6" t="n">
+        <v>38361324</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25705240</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14090257</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5235996</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1191693</v>
+      </c>
+      <c r="W6" t="n">
+        <v>68176</v>
+      </c>
+      <c r="X6" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C7" t="n">
+        <v>398578000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15331368</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65260356</v>
+      </c>
+      <c r="F7" t="n">
+        <v>155225540</v>
+      </c>
+      <c r="G7" t="n">
+        <v>229067380</v>
+      </c>
+      <c r="H7" t="n">
+        <v>230257100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>243351680</v>
+      </c>
+      <c r="J7" t="n">
+        <v>219741810</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13673901</v>
+      </c>
+      <c r="L7" t="n">
+        <v>49928988</v>
+      </c>
+      <c r="M7" t="n">
+        <v>48631456</v>
+      </c>
+      <c r="N7" t="n">
+        <v>41333730</v>
+      </c>
+      <c r="O7" t="n">
+        <v>38760468</v>
+      </c>
+      <c r="P7" t="n">
+        <v>66267700</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>51632420</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39138480</v>
+      </c>
+      <c r="S7" t="n">
+        <v>26403784</v>
+      </c>
+      <c r="T7" t="n">
+        <v>14499417</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5369008</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1212714</v>
+      </c>
+      <c r="W7" t="n">
+        <v>67693</v>
+      </c>
+      <c r="X7" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>407656600</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15624591</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66988156</v>
+      </c>
+      <c r="F8" t="n">
+        <v>160027970</v>
+      </c>
+      <c r="G8" t="n">
+        <v>234683490</v>
+      </c>
+      <c r="H8" t="n">
+        <v>234200480</v>
+      </c>
+      <c r="I8" t="n">
+        <v>247628000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>223966980</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14007465</v>
+      </c>
+      <c r="L8" t="n">
+        <v>51363570</v>
+      </c>
+      <c r="M8" t="n">
+        <v>50977852</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42061950</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39056116</v>
+      </c>
+      <c r="P8" t="n">
+        <v>67303976</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>52491840</v>
+      </c>
+      <c r="R8" t="n">
+        <v>39869076</v>
+      </c>
+      <c r="S8" t="n">
+        <v>27077334</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14939793</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5579980</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1242358</v>
+      </c>
+      <c r="W8" t="n">
+        <v>67533</v>
+      </c>
+      <c r="X8" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="n">
+        <v>416935400</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15909541</v>
+      </c>
+      <c r="E9" t="n">
+        <v>68638730</v>
+      </c>
+      <c r="F9" t="n">
+        <v>165022640</v>
+      </c>
+      <c r="G9" t="n">
+        <v>240460750</v>
+      </c>
+      <c r="H9" t="n">
+        <v>238218380</v>
+      </c>
+      <c r="I9" t="n">
+        <v>251912200</v>
+      </c>
+      <c r="J9" t="n">
+        <v>228145860</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14300445</v>
+      </c>
+      <c r="L9" t="n">
+        <v>52729184</v>
+      </c>
+      <c r="M9" t="n">
+        <v>53445290</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42938628</v>
+      </c>
+      <c r="O9" t="n">
+        <v>39281210</v>
+      </c>
+      <c r="P9" t="n">
+        <v>68377144</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>53360436</v>
+      </c>
+      <c r="R9" t="n">
+        <v>40547700</v>
+      </c>
+      <c r="S9" t="n">
+        <v>27721230</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15408413</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5868256</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1280305</v>
+      </c>
+      <c r="W9" t="n">
+        <v>67496</v>
+      </c>
+      <c r="X9" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="n">
+        <v>426295780</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16169715</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70174700</v>
+      </c>
+      <c r="F10" t="n">
+        <v>170142200</v>
+      </c>
+      <c r="G10" t="n">
+        <v>246338510</v>
+      </c>
+      <c r="H10" t="n">
+        <v>242210340</v>
+      </c>
+      <c r="I10" t="n">
+        <v>256153040</v>
+      </c>
+      <c r="J10" t="n">
+        <v>232172720</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14584836</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54004984</v>
+      </c>
+      <c r="M10" t="n">
+        <v>56012812</v>
+      </c>
+      <c r="N10" t="n">
+        <v>43954692</v>
+      </c>
+      <c r="O10" t="n">
+        <v>39506504</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69405650</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>54220290</v>
+      </c>
+      <c r="R10" t="n">
+        <v>41190404</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28352908</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15898968</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6196731</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1313804</v>
+      </c>
+      <c r="W10" t="n">
+        <v>67785</v>
+      </c>
+      <c r="X10" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="n">
+        <v>435900350</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16406064</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71593820</v>
+      </c>
+      <c r="F11" t="n">
+        <v>175355740</v>
+      </c>
+      <c r="G11" t="n">
+        <v>252378960</v>
+      </c>
+      <c r="H11" t="n">
+        <v>246283020</v>
+      </c>
+      <c r="I11" t="n">
+        <v>260544140</v>
+      </c>
+      <c r="J11" t="n">
+        <v>236233040</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14849600</v>
+      </c>
+      <c r="L11" t="n">
+        <v>55187760</v>
+      </c>
+      <c r="M11" t="n">
+        <v>58187424</v>
+      </c>
+      <c r="N11" t="n">
+        <v>45574496</v>
+      </c>
+      <c r="O11" t="n">
+        <v>39869732</v>
+      </c>
+      <c r="P11" t="n">
+        <v>70375470</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>55119430</v>
+      </c>
+      <c r="R11" t="n">
+        <v>41857224</v>
+      </c>
+      <c r="S11" t="n">
+        <v>29011472</v>
+      </c>
+      <c r="T11" t="n">
+        <v>16407758</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6502638</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1331849</v>
+      </c>
+      <c r="W11" t="n">
+        <v>68563</v>
+      </c>
+      <c r="X11" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="n">
+        <v>445954560</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16699393</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72995190</v>
+      </c>
+      <c r="F12" t="n">
+        <v>180703650</v>
+      </c>
+      <c r="G12" t="n">
+        <v>258710430</v>
+      </c>
+      <c r="H12" t="n">
+        <v>250572480</v>
+      </c>
+      <c r="I12" t="n">
+        <v>265250500</v>
+      </c>
+      <c r="J12" t="n">
+        <v>240488860</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15093673</v>
+      </c>
+      <c r="L12" t="n">
+        <v>56295800</v>
+      </c>
+      <c r="M12" t="n">
+        <v>59926584</v>
+      </c>
+      <c r="N12" t="n">
+        <v>47781870</v>
+      </c>
+      <c r="O12" t="n">
+        <v>40442130</v>
+      </c>
+      <c r="P12" t="n">
+        <v>71318550</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>56094076</v>
+      </c>
+      <c r="R12" t="n">
+        <v>42578450</v>
+      </c>
+      <c r="S12" t="n">
+        <v>29713464</v>
+      </c>
+      <c r="T12" t="n">
+        <v>16932056</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6765713</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1336318</v>
+      </c>
+      <c r="W12" t="n">
+        <v>69732</v>
+      </c>
+      <c r="X12" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="n">
+        <v>456351870</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17041980</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74444050</v>
+      </c>
+      <c r="F13" t="n">
+        <v>186176460</v>
+      </c>
+      <c r="G13" t="n">
+        <v>265278200</v>
+      </c>
+      <c r="H13" t="n">
+        <v>254983170</v>
+      </c>
+      <c r="I13" t="n">
+        <v>270175000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>244860750</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15385084</v>
+      </c>
+      <c r="L13" t="n">
+        <v>57402064</v>
+      </c>
+      <c r="M13" t="n">
+        <v>61633756</v>
+      </c>
+      <c r="N13" t="n">
+        <v>50098664</v>
+      </c>
+      <c r="O13" t="n">
+        <v>41192120</v>
+      </c>
+      <c r="P13" t="n">
+        <v>72220136</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>57110336</v>
+      </c>
+      <c r="R13" t="n">
+        <v>43333924</v>
+      </c>
+      <c r="S13" t="n">
+        <v>30454740</v>
+      </c>
+      <c r="T13" t="n">
+        <v>17470650</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6994713</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1327488</v>
+      </c>
+      <c r="W13" t="n">
+        <v>70893</v>
+      </c>
+      <c r="X13" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="n">
+        <v>467024200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17381592</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75932540</v>
+      </c>
+      <c r="F14" t="n">
+        <v>191752240</v>
+      </c>
+      <c r="G14" t="n">
+        <v>272018200</v>
+      </c>
+      <c r="H14" t="n">
+        <v>259461460</v>
+      </c>
+      <c r="I14" t="n">
+        <v>275271550</v>
+      </c>
+      <c r="J14" t="n">
+        <v>249336660</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15719908</v>
+      </c>
+      <c r="L14" t="n">
+        <v>58550950</v>
+      </c>
+      <c r="M14" t="n">
+        <v>63284520</v>
+      </c>
+      <c r="N14" t="n">
+        <v>52535172</v>
+      </c>
+      <c r="O14" t="n">
+        <v>42080250</v>
+      </c>
+      <c r="P14" t="n">
+        <v>73094104</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>58152492</v>
+      </c>
+      <c r="R14" t="n">
+        <v>44119052</v>
+      </c>
+      <c r="S14" t="n">
+        <v>31231818</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18024804</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7187674</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1309491</v>
+      </c>
+      <c r="W14" t="n">
+        <v>71870</v>
+      </c>
+      <c r="X14" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="n">
+        <v>477933630</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17731870</v>
+      </c>
+      <c r="E15" t="n">
+        <v>77489390</v>
+      </c>
+      <c r="F15" t="n">
+        <v>197410620</v>
+      </c>
+      <c r="G15" t="n">
+        <v>278964260</v>
+      </c>
+      <c r="H15" t="n">
+        <v>264033140</v>
+      </c>
+      <c r="I15" t="n">
+        <v>280522600</v>
+      </c>
+      <c r="J15" t="n">
+        <v>253905920</v>
+      </c>
+      <c r="K15" t="n">
+        <v>16051885</v>
+      </c>
+      <c r="L15" t="n">
+        <v>59757520</v>
+      </c>
+      <c r="M15" t="n">
+        <v>64846532</v>
+      </c>
+      <c r="N15" t="n">
+        <v>55074708</v>
+      </c>
+      <c r="O15" t="n">
+        <v>43094308</v>
+      </c>
+      <c r="P15" t="n">
+        <v>73951840</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>59202240</v>
+      </c>
+      <c r="R15" t="n">
+        <v>44924980</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32017972</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18590090</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7365635</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1302453</v>
+      </c>
+      <c r="W15" t="n">
+        <v>73064</v>
+      </c>
+      <c r="X15" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="n">
+        <v>489059300</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18087494</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79139790</v>
+      </c>
+      <c r="F16" t="n">
+        <v>202662750</v>
+      </c>
+      <c r="G16" t="n">
+        <v>286189440</v>
+      </c>
+      <c r="H16" t="n">
+        <v>269239460</v>
+      </c>
+      <c r="I16" t="n">
+        <v>286396160</v>
+      </c>
+      <c r="J16" t="n">
+        <v>258576750</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16393057</v>
+      </c>
+      <c r="L16" t="n">
+        <v>61052304</v>
+      </c>
+      <c r="M16" t="n">
+        <v>66295812</v>
+      </c>
+      <c r="N16" t="n">
+        <v>57227144</v>
+      </c>
+      <c r="O16" t="n">
+        <v>44686690</v>
+      </c>
+      <c r="P16" t="n">
+        <v>74824130</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>60243896</v>
+      </c>
+      <c r="R16" t="n">
+        <v>45738790</v>
+      </c>
+      <c r="S16" t="n">
+        <v>32776084</v>
+      </c>
+      <c r="T16" t="n">
+        <v>19154646</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7570492</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1326609</v>
+      </c>
+      <c r="W16" t="n">
+        <v>74815</v>
+      </c>
+      <c r="X16" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500114340</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18350330</v>
+      </c>
+      <c r="E17" t="n">
+        <v>80652080</v>
+      </c>
+      <c r="F17" t="n">
+        <v>207262140</v>
+      </c>
+      <c r="G17" t="n">
+        <v>293492500</v>
+      </c>
+      <c r="H17" t="n">
+        <v>275095460</v>
+      </c>
+      <c r="I17" t="n">
+        <v>292851800</v>
+      </c>
+      <c r="J17" t="n">
+        <v>263300000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16696152</v>
+      </c>
+      <c r="L17" t="n">
+        <v>62301750</v>
+      </c>
+      <c r="M17" t="n">
+        <v>67674664</v>
+      </c>
+      <c r="N17" t="n">
+        <v>58935396</v>
+      </c>
+      <c r="O17" t="n">
+        <v>46841900</v>
+      </c>
+      <c r="P17" t="n">
+        <v>75765280</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>61262636</v>
+      </c>
+      <c r="R17" t="n">
+        <v>46550060</v>
+      </c>
+      <c r="S17" t="n">
+        <v>33476728</v>
+      </c>
+      <c r="T17" t="n">
+        <v>19696136</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7801580</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1380800</v>
+      </c>
+      <c r="W17" t="n">
+        <v>76685</v>
+      </c>
+      <c r="X17" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="n">
+        <v>510992600</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18549292</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81941890</v>
+      </c>
+      <c r="F18" t="n">
+        <v>211583820</v>
+      </c>
+      <c r="G18" t="n">
+        <v>300765500</v>
+      </c>
+      <c r="H18" t="n">
+        <v>281128540</v>
+      </c>
+      <c r="I18" t="n">
+        <v>299408400</v>
+      </c>
+      <c r="J18" t="n">
+        <v>268059550</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16914684</v>
+      </c>
+      <c r="L18" t="n">
+        <v>63392600</v>
+      </c>
+      <c r="M18" t="n">
+        <v>69042900</v>
+      </c>
+      <c r="N18" t="n">
+        <v>60599040</v>
+      </c>
+      <c r="O18" t="n">
+        <v>49094090</v>
+      </c>
+      <c r="P18" t="n">
+        <v>76766376</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>62275770</v>
+      </c>
+      <c r="R18" t="n">
+        <v>47358416</v>
+      </c>
+      <c r="S18" t="n">
+        <v>34117536</v>
+      </c>
+      <c r="T18" t="n">
+        <v>20205384</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8053042</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1458717</v>
+      </c>
+      <c r="W18" t="n">
+        <v>79063</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="n">
+        <v>521987070</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18801650</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83188344</v>
+      </c>
+      <c r="F19" t="n">
+        <v>215806460</v>
+      </c>
+      <c r="G19" t="n">
+        <v>308191400</v>
+      </c>
+      <c r="H19" t="n">
+        <v>287440580</v>
+      </c>
+      <c r="I19" t="n">
+        <v>306180200</v>
+      </c>
+      <c r="J19" t="n">
+        <v>273424900</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17119550</v>
+      </c>
+      <c r="L19" t="n">
+        <v>64386692</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70412810</v>
+      </c>
+      <c r="N19" t="n">
+        <v>62205320</v>
+      </c>
+      <c r="O19" t="n">
+        <v>51466830</v>
+      </c>
+      <c r="P19" t="n">
+        <v>77827540</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>63325190</v>
+      </c>
+      <c r="R19" t="n">
+        <v>48179330</v>
+      </c>
+      <c r="S19" t="n">
+        <v>34710030</v>
+      </c>
+      <c r="T19" t="n">
+        <v>20693726</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8334356</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1561088</v>
+      </c>
+      <c r="W19" t="n">
+        <v>82108</v>
+      </c>
+      <c r="X19" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="n">
+        <v>533431900</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19115226</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84559050</v>
+      </c>
+      <c r="F20" t="n">
+        <v>220113070</v>
+      </c>
+      <c r="G20" t="n">
+        <v>315965000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>294131780</v>
+      </c>
+      <c r="I20" t="n">
+        <v>313318430</v>
+      </c>
+      <c r="J20" t="n">
+        <v>279540740</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17418130</v>
+      </c>
+      <c r="L20" t="n">
+        <v>65443820</v>
+      </c>
+      <c r="M20" t="n">
+        <v>71820240</v>
+      </c>
+      <c r="N20" t="n">
+        <v>63733776</v>
+      </c>
+      <c r="O20" t="n">
+        <v>53959120</v>
+      </c>
+      <c r="P20" t="n">
+        <v>79052720</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>64394136</v>
+      </c>
+      <c r="R20" t="n">
+        <v>49037704</v>
+      </c>
+      <c r="S20" t="n">
+        <v>35292410</v>
+      </c>
+      <c r="T20" t="n">
+        <v>21185628</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8639160</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1672722</v>
+      </c>
+      <c r="W20" t="n">
+        <v>84840</v>
+      </c>
+      <c r="X20" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="n">
+        <v>545314700</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19417174</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86049544</v>
+      </c>
+      <c r="F21" t="n">
+        <v>224485940</v>
+      </c>
+      <c r="G21" t="n">
+        <v>324031230</v>
+      </c>
+      <c r="H21" t="n">
+        <v>301154400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>320828320</v>
+      </c>
+      <c r="J21" t="n">
+        <v>285986700</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17775196</v>
+      </c>
+      <c r="L21" t="n">
+        <v>66632372</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73277290</v>
+      </c>
+      <c r="N21" t="n">
+        <v>65159108</v>
+      </c>
+      <c r="O21" t="n">
+        <v>56091040</v>
+      </c>
+      <c r="P21" t="n">
+        <v>80991700</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>65408890</v>
+      </c>
+      <c r="R21" t="n">
+        <v>49944076</v>
+      </c>
+      <c r="S21" t="n">
+        <v>35900104</v>
+      </c>
+      <c r="T21" t="n">
+        <v>21694232</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8943460</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1768310</v>
+      </c>
+      <c r="W21" t="n">
+        <v>86515</v>
+      </c>
+      <c r="X21" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="n">
+        <v>557501300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19708422</v>
+      </c>
+      <c r="E22" t="n">
+        <v>87592480</v>
+      </c>
+      <c r="F22" t="n">
+        <v>228814000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>332230800</v>
+      </c>
+      <c r="H22" t="n">
+        <v>308479500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>328686850</v>
+      </c>
+      <c r="J22" t="n">
+        <v>292790800</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18080588</v>
+      </c>
+      <c r="L22" t="n">
+        <v>67884056</v>
+      </c>
+      <c r="M22" t="n">
+        <v>74686780</v>
+      </c>
+      <c r="N22" t="n">
+        <v>66534736</v>
+      </c>
+      <c r="O22" t="n">
+        <v>57818944</v>
+      </c>
+      <c r="P22" t="n">
+        <v>83703950</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>66356270</v>
+      </c>
+      <c r="R22" t="n">
+        <v>50898240</v>
+      </c>
+      <c r="S22" t="n">
+        <v>36538416</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22211184</v>
+      </c>
+      <c r="U22" t="n">
+        <v>9230400</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1841708</v>
+      </c>
+      <c r="W22" t="n">
+        <v>87741</v>
+      </c>
+      <c r="X22" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>569999170</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20084850</v>
+      </c>
+      <c r="E23" t="n">
+        <v>89262030</v>
+      </c>
+      <c r="F23" t="n">
+        <v>233205730</v>
+      </c>
+      <c r="G23" t="n">
+        <v>340571040</v>
+      </c>
+      <c r="H23" t="n">
+        <v>315989500</v>
+      </c>
+      <c r="I23" t="n">
+        <v>336792960</v>
+      </c>
+      <c r="J23" t="n">
+        <v>299907520</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18374650</v>
+      </c>
+      <c r="L23" t="n">
+        <v>69177176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>76024350</v>
+      </c>
+      <c r="N23" t="n">
+        <v>67919340</v>
+      </c>
+      <c r="O23" t="n">
+        <v>59516224</v>
+      </c>
+      <c r="P23" t="n">
+        <v>86685220</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>67247460</v>
+      </c>
+      <c r="R23" t="n">
+        <v>51888656</v>
+      </c>
+      <c r="S23" t="n">
+        <v>37206090</v>
+      </c>
+      <c r="T23" t="n">
+        <v>22748600</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9510036</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1901718</v>
+      </c>
+      <c r="W23" t="n">
+        <v>88974</v>
+      </c>
+      <c r="X23" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="n">
+        <v>582837950</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20467156</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90981144</v>
+      </c>
+      <c r="F24" t="n">
+        <v>237668270</v>
+      </c>
+      <c r="G24" t="n">
+        <v>349044400</v>
+      </c>
+      <c r="H24" t="n">
+        <v>323685100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>345169120</v>
+      </c>
+      <c r="J24" t="n">
+        <v>307364400</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18746450</v>
+      </c>
+      <c r="L24" t="n">
+        <v>70513990</v>
+      </c>
+      <c r="M24" t="n">
+        <v>77381630</v>
+      </c>
+      <c r="N24" t="n">
+        <v>69305496</v>
+      </c>
+      <c r="O24" t="n">
+        <v>61155050</v>
+      </c>
+      <c r="P24" t="n">
+        <v>89921170</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>68118830</v>
+      </c>
+      <c r="R24" t="n">
+        <v>52914470</v>
+      </c>
+      <c r="S24" t="n">
+        <v>37911092</v>
+      </c>
+      <c r="T24" t="n">
+        <v>23313154</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9791568</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1952874</v>
+      </c>
+      <c r="W24" t="n">
+        <v>90924</v>
+      </c>
+      <c r="X24" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="n">
+        <v>596107460</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20834574</v>
+      </c>
+      <c r="E25" t="n">
+        <v>92714300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>242226940</v>
+      </c>
+      <c r="G25" t="n">
+        <v>357647870</v>
+      </c>
+      <c r="H25" t="n">
+        <v>331640540</v>
+      </c>
+      <c r="I25" t="n">
+        <v>353879900</v>
+      </c>
+      <c r="J25" t="n">
+        <v>315214530</v>
+      </c>
+      <c r="K25" t="n">
+        <v>19127382</v>
+      </c>
+      <c r="L25" t="n">
+        <v>71879736</v>
+      </c>
+      <c r="M25" t="n">
+        <v>78803820</v>
+      </c>
+      <c r="N25" t="n">
+        <v>70708800</v>
+      </c>
+      <c r="O25" t="n">
+        <v>62707708</v>
+      </c>
+      <c r="P25" t="n">
+        <v>93422280</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>69020920</v>
+      </c>
+      <c r="R25" t="n">
+        <v>53978624</v>
+      </c>
+      <c r="S25" t="n">
+        <v>38658596</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23895292</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10089480</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2011054</v>
+      </c>
+      <c r="W25" t="n">
+        <v>95938</v>
+      </c>
+      <c r="X25" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="n">
+        <v>609721900</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21202718</v>
+      </c>
+      <c r="E26" t="n">
+        <v>94526960</v>
+      </c>
+      <c r="F26" t="n">
+        <v>246929630</v>
+      </c>
+      <c r="G26" t="n">
+        <v>365890180</v>
+      </c>
+      <c r="H26" t="n">
+        <v>339752300</v>
+      </c>
+      <c r="I26" t="n">
+        <v>362791520</v>
+      </c>
+      <c r="J26" t="n">
+        <v>323327040</v>
+      </c>
+      <c r="K26" t="n">
+        <v>19503296</v>
+      </c>
+      <c r="L26" t="n">
+        <v>73324240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>80262780</v>
+      </c>
+      <c r="N26" t="n">
+        <v>72139890</v>
+      </c>
+      <c r="O26" t="n">
+        <v>64131684</v>
+      </c>
+      <c r="P26" t="n">
+        <v>97100424</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>69957496</v>
+      </c>
+      <c r="R26" t="n">
+        <v>55057484</v>
+      </c>
+      <c r="S26" t="n">
+        <v>39438576</v>
+      </c>
+      <c r="T26" t="n">
+        <v>24480950</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10419762</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2098747</v>
+      </c>
+      <c r="W26" t="n">
+        <v>106407</v>
+      </c>
+      <c r="X26" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="n">
+        <v>623524200</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21442342</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96304296</v>
+      </c>
+      <c r="F27" t="n">
+        <v>251621400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>373629920</v>
+      </c>
+      <c r="H27" t="n">
+        <v>348039330</v>
+      </c>
+      <c r="I27" t="n">
+        <v>371901860</v>
+      </c>
+      <c r="J27" t="n">
+        <v>331659140</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19883024</v>
+      </c>
+      <c r="L27" t="n">
+        <v>74861950</v>
+      </c>
+      <c r="M27" t="n">
+        <v>81790456</v>
+      </c>
+      <c r="N27" t="n">
+        <v>73526660</v>
+      </c>
+      <c r="O27" t="n">
+        <v>65490500</v>
+      </c>
+      <c r="P27" t="n">
+        <v>100884550</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>70961784</v>
+      </c>
+      <c r="R27" t="n">
+        <v>56131184</v>
+      </c>
+      <c r="S27" t="n">
+        <v>40246390</v>
+      </c>
+      <c r="T27" t="n">
+        <v>25061186</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10784613</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2219301</v>
+      </c>
+      <c r="W27" t="n">
+        <v>122337</v>
+      </c>
+      <c r="X27" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="n">
+        <v>637451460</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21695536</v>
+      </c>
+      <c r="E28" t="n">
+        <v>97984960</v>
+      </c>
+      <c r="F28" t="n">
+        <v>256283890</v>
+      </c>
+      <c r="G28" t="n">
+        <v>381283800</v>
+      </c>
+      <c r="H28" t="n">
+        <v>356475040</v>
+      </c>
+      <c r="I28" t="n">
+        <v>381166370</v>
+      </c>
+      <c r="J28" t="n">
+        <v>340113630</v>
+      </c>
+      <c r="K28" t="n">
+        <v>20140786</v>
+      </c>
+      <c r="L28" t="n">
+        <v>76289420</v>
+      </c>
+      <c r="M28" t="n">
+        <v>83450820</v>
+      </c>
+      <c r="N28" t="n">
+        <v>74848110</v>
+      </c>
+      <c r="O28" t="n">
+        <v>66846064</v>
+      </c>
+      <c r="P28" t="n">
+        <v>104697704</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>72024530</v>
+      </c>
+      <c r="R28" t="n">
+        <v>57213784</v>
+      </c>
+      <c r="S28" t="n">
+        <v>41075476</v>
+      </c>
+      <c r="T28" t="n">
+        <v>25628750</v>
+      </c>
+      <c r="U28" t="n">
+        <v>11171653</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2365591</v>
+      </c>
+      <c r="W28" t="n">
+        <v>142819</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="n">
+        <v>651685600</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21919300</v>
+      </c>
+      <c r="E29" t="n">
+        <v>99543750</v>
+      </c>
+      <c r="F29" t="n">
+        <v>260929760</v>
+      </c>
+      <c r="G29" t="n">
+        <v>388915400</v>
+      </c>
+      <c r="H29" t="n">
+        <v>365254340</v>
+      </c>
+      <c r="I29" t="n">
+        <v>390754400</v>
+      </c>
+      <c r="J29" t="n">
+        <v>348828350</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20417390</v>
+      </c>
+      <c r="L29" t="n">
+        <v>77624456</v>
+      </c>
+      <c r="M29" t="n">
+        <v>85185180</v>
+      </c>
+      <c r="N29" t="n">
+        <v>76200820</v>
+      </c>
+      <c r="O29" t="n">
+        <v>68224680</v>
+      </c>
+      <c r="P29" t="n">
+        <v>108622984</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>73181540</v>
+      </c>
+      <c r="R29" t="n">
+        <v>58350640</v>
+      </c>
+      <c r="S29" t="n">
+        <v>41930136</v>
+      </c>
+      <c r="T29" t="n">
+        <v>26174132</v>
+      </c>
+      <c r="U29" t="n">
+        <v>11571164</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2531960</v>
+      </c>
+      <c r="W29" t="n">
+        <v>167169</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="n">
+        <v>666267800</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22075898</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100929090</v>
+      </c>
+      <c r="F30" t="n">
+        <v>265520940</v>
+      </c>
+      <c r="G30" t="n">
+        <v>396501920</v>
+      </c>
+      <c r="H30" t="n">
+        <v>374467000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>400745060</v>
+      </c>
+      <c r="J30" t="n">
+        <v>357919550</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20670502</v>
+      </c>
+      <c r="L30" t="n">
+        <v>78853190</v>
+      </c>
+      <c r="M30" t="n">
+        <v>86963880</v>
+      </c>
+      <c r="N30" t="n">
+        <v>77627970</v>
+      </c>
+      <c r="O30" t="n">
+        <v>69651900</v>
+      </c>
+      <c r="P30" t="n">
+        <v>112660050</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>74529496</v>
+      </c>
+      <c r="R30" t="n">
+        <v>59515216</v>
+      </c>
+      <c r="S30" t="n">
+        <v>42817156</v>
+      </c>
+      <c r="T30" t="n">
+        <v>26706000</v>
+      </c>
+      <c r="U30" t="n">
+        <v>11972126</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2701377</v>
+      </c>
+      <c r="W30" t="n">
+        <v>191738</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="n">
+        <v>681248400</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22432706</v>
+      </c>
+      <c r="E31" t="n">
+        <v>102338830</v>
+      </c>
+      <c r="F31" t="n">
+        <v>270269020</v>
+      </c>
+      <c r="G31" t="n">
+        <v>404186430</v>
+      </c>
+      <c r="H31" t="n">
+        <v>383945570</v>
+      </c>
+      <c r="I31" t="n">
+        <v>410977340</v>
+      </c>
+      <c r="J31" t="n">
+        <v>367283800</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20861106</v>
+      </c>
+      <c r="L31" t="n">
+        <v>79906130</v>
+      </c>
+      <c r="M31" t="n">
+        <v>88833940</v>
+      </c>
+      <c r="N31" t="n">
+        <v>79096270</v>
+      </c>
+      <c r="O31" t="n">
+        <v>71117240</v>
+      </c>
+      <c r="P31" t="n">
+        <v>116265256</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>76560610</v>
+      </c>
+      <c r="R31" t="n">
+        <v>60624228</v>
+      </c>
+      <c r="S31" t="n">
+        <v>43737610</v>
+      </c>
+      <c r="T31" t="n">
+        <v>27244776</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12363107</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2853116</v>
+      </c>
+      <c r="W31" t="n">
+        <v>211405</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="n">
+        <v>696828350</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22945518</v>
+      </c>
+      <c r="E32" t="n">
+        <v>104032620</v>
+      </c>
+      <c r="F32" t="n">
+        <v>275362560</v>
+      </c>
+      <c r="G32" t="n">
+        <v>412163460</v>
+      </c>
+      <c r="H32" t="n">
+        <v>393699460</v>
+      </c>
+      <c r="I32" t="n">
+        <v>421463650</v>
+      </c>
+      <c r="J32" t="n">
+        <v>376957860</v>
+      </c>
+      <c r="K32" t="n">
+        <v>21242182</v>
+      </c>
+      <c r="L32" t="n">
+        <v>81087110</v>
+      </c>
+      <c r="M32" t="n">
+        <v>90691950</v>
+      </c>
+      <c r="N32" t="n">
+        <v>80637980</v>
+      </c>
+      <c r="O32" t="n">
+        <v>72553520</v>
+      </c>
+      <c r="P32" t="n">
+        <v>119479390</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>79325920</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61663184</v>
+      </c>
+      <c r="S32" t="n">
+        <v>44697404</v>
+      </c>
+      <c r="T32" t="n">
+        <v>27799772</v>
+      </c>
+      <c r="U32" t="n">
+        <v>12738584</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2980927</v>
+      </c>
+      <c r="W32" t="n">
+        <v>224926</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="n">
+        <v>712869300</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23452530</v>
+      </c>
+      <c r="E33" t="n">
+        <v>105965290</v>
+      </c>
+      <c r="F33" t="n">
+        <v>280757200</v>
+      </c>
+      <c r="G33" t="n">
+        <v>420384900</v>
+      </c>
+      <c r="H33" t="n">
+        <v>403630700</v>
+      </c>
+      <c r="I33" t="n">
+        <v>432109800</v>
+      </c>
+      <c r="J33" t="n">
+        <v>386836580</v>
+      </c>
+      <c r="K33" t="n">
+        <v>21768934</v>
+      </c>
+      <c r="L33" t="n">
+        <v>82512760</v>
+      </c>
+      <c r="M33" t="n">
+        <v>92476936</v>
+      </c>
+      <c r="N33" t="n">
+        <v>82314960</v>
+      </c>
+      <c r="O33" t="n">
+        <v>73923260</v>
+      </c>
+      <c r="P33" t="n">
+        <v>122684424</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>82359260</v>
+      </c>
+      <c r="R33" t="n">
+        <v>62654656</v>
+      </c>
+      <c r="S33" t="n">
+        <v>45692904</v>
+      </c>
+      <c r="T33" t="n">
+        <v>28372712</v>
+      </c>
+      <c r="U33" t="n">
+        <v>13101364</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3087857</v>
+      </c>
+      <c r="W33" t="n">
+        <v>233350</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="n">
+        <v>729169500</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23839486</v>
+      </c>
+      <c r="E34" t="n">
+        <v>108030080</v>
+      </c>
+      <c r="F34" t="n">
+        <v>286239840</v>
+      </c>
+      <c r="G34" t="n">
+        <v>428689660</v>
+      </c>
+      <c r="H34" t="n">
+        <v>413737920</v>
+      </c>
+      <c r="I34" t="n">
+        <v>442927200</v>
+      </c>
+      <c r="J34" t="n">
+        <v>396843040</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22288196</v>
+      </c>
+      <c r="L34" t="n">
+        <v>84190590</v>
+      </c>
+      <c r="M34" t="n">
+        <v>94147340</v>
+      </c>
+      <c r="N34" t="n">
+        <v>84062440</v>
+      </c>
+      <c r="O34" t="n">
+        <v>75304880</v>
+      </c>
+      <c r="P34" t="n">
+        <v>125809820</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>85626750</v>
+      </c>
+      <c r="R34" t="n">
+        <v>63624004</v>
+      </c>
+      <c r="S34" t="n">
+        <v>46722200</v>
+      </c>
+      <c r="T34" t="n">
+        <v>28970798</v>
+      </c>
+      <c r="U34" t="n">
+        <v>13453412</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3177780</v>
+      </c>
+      <c r="W34" t="n">
+        <v>237556</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="n">
+        <v>745826560</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24187988</v>
+      </c>
+      <c r="E35" t="n">
+        <v>110255570</v>
+      </c>
+      <c r="F35" t="n">
+        <v>291753470</v>
+      </c>
+      <c r="G35" t="n">
+        <v>437113150</v>
+      </c>
+      <c r="H35" t="n">
+        <v>424166140</v>
+      </c>
+      <c r="I35" t="n">
+        <v>454070530</v>
+      </c>
+      <c r="J35" t="n">
+        <v>407054270</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22693382</v>
+      </c>
+      <c r="L35" t="n">
+        <v>86067580</v>
+      </c>
+      <c r="M35" t="n">
+        <v>95647570</v>
+      </c>
+      <c r="N35" t="n">
+        <v>85850330</v>
+      </c>
+      <c r="O35" t="n">
+        <v>76754880</v>
+      </c>
+      <c r="P35" t="n">
+        <v>128878000</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>89138980</v>
+      </c>
+      <c r="R35" t="n">
+        <v>64613460</v>
+      </c>
+      <c r="S35" t="n">
+        <v>47787544</v>
+      </c>
+      <c r="T35" t="n">
+        <v>29599870</v>
+      </c>
+      <c r="U35" t="n">
+        <v>13794785</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3262023</v>
+      </c>
+      <c r="W35" t="n">
+        <v>240992</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="n">
+        <v>762895170</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24611270</v>
+      </c>
+      <c r="E36" t="n">
+        <v>112535400</v>
+      </c>
+      <c r="F36" t="n">
+        <v>297413060</v>
+      </c>
+      <c r="G36" t="n">
+        <v>445742430</v>
+      </c>
+      <c r="H36" t="n">
+        <v>434850140</v>
+      </c>
+      <c r="I36" t="n">
+        <v>465479300</v>
+      </c>
+      <c r="J36" t="n">
+        <v>417466340</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23059912</v>
+      </c>
+      <c r="L36" t="n">
+        <v>87924130</v>
+      </c>
+      <c r="M36" t="n">
+        <v>97152110</v>
+      </c>
+      <c r="N36" t="n">
+        <v>87725540</v>
+      </c>
+      <c r="O36" t="n">
+        <v>78241176</v>
+      </c>
+      <c r="P36" t="n">
+        <v>131859880</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>92856310</v>
+      </c>
+      <c r="R36" t="n">
+        <v>65651760</v>
+      </c>
+      <c r="S36" t="n">
+        <v>48877876</v>
+      </c>
+      <c r="T36" t="n">
+        <v>30262068</v>
+      </c>
+      <c r="U36" t="n">
+        <v>14127047</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3355021</v>
+      </c>
+      <c r="W36" t="n">
+        <v>248156</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="n">
+        <v>780242100</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24966914</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114656330</v>
+      </c>
+      <c r="F37" t="n">
+        <v>303147840</v>
+      </c>
+      <c r="G37" t="n">
+        <v>454445760</v>
+      </c>
+      <c r="H37" t="n">
+        <v>445720930</v>
+      </c>
+      <c r="I37" t="n">
+        <v>477091040</v>
+      </c>
+      <c r="J37" t="n">
+        <v>428104160</v>
+      </c>
+      <c r="K37" t="n">
+        <v>23495398</v>
+      </c>
+      <c r="L37" t="n">
+        <v>89689410</v>
+      </c>
+      <c r="M37" t="n">
+        <v>98907784</v>
+      </c>
+      <c r="N37" t="n">
+        <v>89583736</v>
+      </c>
+      <c r="O37" t="n">
+        <v>79787120</v>
+      </c>
+      <c r="P37" t="n">
+        <v>134717220</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>96705140</v>
+      </c>
+      <c r="R37" t="n">
+        <v>66769870</v>
+      </c>
+      <c r="S37" t="n">
+        <v>49974530</v>
+      </c>
+      <c r="T37" t="n">
+        <v>30960820</v>
+      </c>
+      <c r="U37" t="n">
+        <v>14454095</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3462465</v>
+      </c>
+      <c r="W37" t="n">
+        <v>259793</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="n">
+        <v>797879000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25356164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>116660780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>308918430</v>
+      </c>
+      <c r="G38" t="n">
+        <v>463224420</v>
+      </c>
+      <c r="H38" t="n">
+        <v>456823500</v>
+      </c>
+      <c r="I38" t="n">
+        <v>488956930</v>
+      </c>
+      <c r="J38" t="n">
+        <v>438975070</v>
+      </c>
+      <c r="K38" t="n">
+        <v>23865284</v>
+      </c>
+      <c r="L38" t="n">
+        <v>91304616</v>
+      </c>
+      <c r="M38" t="n">
+        <v>100890700</v>
+      </c>
+      <c r="N38" t="n">
+        <v>91366940</v>
+      </c>
+      <c r="O38" t="n">
+        <v>81456490</v>
+      </c>
+      <c r="P38" t="n">
+        <v>137480480</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>100621090</v>
+      </c>
+      <c r="R38" t="n">
+        <v>67968770</v>
+      </c>
+      <c r="S38" t="n">
+        <v>51093704</v>
+      </c>
+      <c r="T38" t="n">
+        <v>31698036</v>
+      </c>
+      <c r="U38" t="n">
+        <v>14780433</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3582982</v>
+      </c>
+      <c r="W38" t="n">
+        <v>274944</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="n">
+        <v>815716160</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25622342</v>
+      </c>
+      <c r="E39" t="n">
+        <v>118538910</v>
+      </c>
+      <c r="F39" t="n">
+        <v>314595870</v>
+      </c>
+      <c r="G39" t="n">
+        <v>471990200</v>
+      </c>
+      <c r="H39" t="n">
+        <v>468194800</v>
+      </c>
+      <c r="I39" t="n">
+        <v>501116100</v>
+      </c>
+      <c r="J39" t="n">
+        <v>450057950</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24267964</v>
+      </c>
+      <c r="L39" t="n">
+        <v>92916580</v>
+      </c>
+      <c r="M39" t="n">
+        <v>103018300</v>
+      </c>
+      <c r="N39" t="n">
+        <v>93038660</v>
+      </c>
+      <c r="O39" t="n">
+        <v>83193096</v>
+      </c>
+      <c r="P39" t="n">
+        <v>140245060</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>104597800</v>
+      </c>
+      <c r="R39" t="n">
+        <v>69233816</v>
+      </c>
+      <c r="S39" t="n">
+        <v>52255052</v>
+      </c>
+      <c r="T39" t="n">
+        <v>32472398</v>
+      </c>
+      <c r="U39" t="n">
+        <v>15109342</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3716402</v>
+      </c>
+      <c r="W39" t="n">
+        <v>293159</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="n">
+        <v>833729660</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25731706</v>
+      </c>
+      <c r="E40" t="n">
+        <v>120183490</v>
+      </c>
+      <c r="F40" t="n">
+        <v>320048220</v>
+      </c>
+      <c r="G40" t="n">
+        <v>480661540</v>
+      </c>
+      <c r="H40" t="n">
+        <v>479936450</v>
+      </c>
+      <c r="I40" t="n">
+        <v>513676860</v>
+      </c>
+      <c r="J40" t="n">
+        <v>461449280</v>
+      </c>
+      <c r="K40" t="n">
+        <v>24554690</v>
+      </c>
+      <c r="L40" t="n">
+        <v>94451780</v>
+      </c>
+      <c r="M40" t="n">
+        <v>105318710</v>
+      </c>
+      <c r="N40" t="n">
+        <v>94546024</v>
+      </c>
+      <c r="O40" t="n">
+        <v>84979020</v>
+      </c>
+      <c r="P40" t="n">
+        <v>143115400</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>108615580</v>
+      </c>
+      <c r="R40" t="n">
+        <v>70639540</v>
+      </c>
+      <c r="S40" t="n">
+        <v>53425220</v>
+      </c>
+      <c r="T40" t="n">
+        <v>33284388</v>
+      </c>
+      <c r="U40" t="n">
+        <v>15449048</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3856982</v>
+      </c>
+      <c r="W40" t="n">
+        <v>311693</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="n">
+        <v>852012700</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25899084</v>
+      </c>
+      <c r="E41" t="n">
+        <v>121595090</v>
+      </c>
+      <c r="F41" t="n">
+        <v>325342200</v>
+      </c>
+      <c r="G41" t="n">
+        <v>489332300</v>
+      </c>
+      <c r="H41" t="n">
+        <v>492063300</v>
+      </c>
+      <c r="I41" t="n">
+        <v>526665570</v>
+      </c>
+      <c r="J41" t="n">
+        <v>473246270</v>
+      </c>
+      <c r="K41" t="n">
+        <v>24691902</v>
+      </c>
+      <c r="L41" t="n">
+        <v>95696010</v>
+      </c>
+      <c r="M41" t="n">
+        <v>107684540</v>
+      </c>
+      <c r="N41" t="n">
+        <v>96062570</v>
+      </c>
+      <c r="O41" t="n">
+        <v>86862800</v>
+      </c>
+      <c r="P41" t="n">
+        <v>146087220</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>112214650</v>
+      </c>
+      <c r="R41" t="n">
+        <v>72691310</v>
+      </c>
+      <c r="S41" t="n">
+        <v>54540036</v>
+      </c>
+      <c r="T41" t="n">
+        <v>34136424</v>
+      </c>
+      <c r="U41" t="n">
+        <v>15809686</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3996189</v>
+      </c>
+      <c r="W41" t="n">
+        <v>327269</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="n">
+        <v>870452160</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25963876</v>
+      </c>
+      <c r="E42" t="n">
+        <v>122731840</v>
+      </c>
+      <c r="F42" t="n">
+        <v>330481920</v>
+      </c>
+      <c r="G42" t="n">
+        <v>497930460</v>
+      </c>
+      <c r="H42" t="n">
+        <v>504451100</v>
+      </c>
+      <c r="I42" t="n">
+        <v>539965200</v>
+      </c>
+      <c r="J42" t="n">
+        <v>485456030</v>
+      </c>
+      <c r="K42" t="n">
+        <v>24884062</v>
+      </c>
+      <c r="L42" t="n">
+        <v>96767960</v>
+      </c>
+      <c r="M42" t="n">
+        <v>109914990</v>
+      </c>
+      <c r="N42" t="n">
+        <v>97835090</v>
+      </c>
+      <c r="O42" t="n">
+        <v>88739730</v>
+      </c>
+      <c r="P42" t="n">
+        <v>149119340</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>115409304</v>
+      </c>
+      <c r="R42" t="n">
+        <v>75422730</v>
+      </c>
+      <c r="S42" t="n">
+        <v>55579664</v>
+      </c>
+      <c r="T42" t="n">
+        <v>35026650</v>
+      </c>
+      <c r="U42" t="n">
+        <v>16195947</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4132061</v>
+      </c>
+      <c r="W42" t="n">
+        <v>339782</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="n">
+        <v>888941760</v>
+      </c>
+      <c r="D43" t="n">
+        <v>26101892</v>
+      </c>
+      <c r="E43" t="n">
+        <v>123628024</v>
+      </c>
+      <c r="F43" t="n">
+        <v>335504770</v>
+      </c>
+      <c r="G43" t="n">
+        <v>506442100</v>
+      </c>
+      <c r="H43" t="n">
+        <v>516954050</v>
+      </c>
+      <c r="I43" t="n">
+        <v>553431940</v>
+      </c>
+      <c r="J43" t="n">
+        <v>497923870</v>
+      </c>
+      <c r="K43" t="n">
+        <v>24974048</v>
+      </c>
+      <c r="L43" t="n">
+        <v>97526130</v>
+      </c>
+      <c r="M43" t="n">
+        <v>112039470</v>
+      </c>
+      <c r="N43" t="n">
+        <v>99837250</v>
+      </c>
+      <c r="O43" t="n">
+        <v>90531400</v>
+      </c>
+      <c r="P43" t="n">
+        <v>152187140</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>118572510</v>
+      </c>
+      <c r="R43" t="n">
+        <v>78395630</v>
+      </c>
+      <c r="S43" t="n">
+        <v>56569020</v>
+      </c>
+      <c r="T43" t="n">
+        <v>35949692</v>
+      </c>
+      <c r="U43" t="n">
+        <v>16607986</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4267945</v>
+      </c>
+      <c r="W43" t="n">
+        <v>350587</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="n">
+        <v>907574100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26314278</v>
+      </c>
+      <c r="E44" t="n">
+        <v>124470910</v>
+      </c>
+      <c r="F44" t="n">
+        <v>340506980</v>
+      </c>
+      <c r="G44" t="n">
+        <v>514875500</v>
+      </c>
+      <c r="H44" t="n">
+        <v>529565820</v>
+      </c>
+      <c r="I44" t="n">
+        <v>567061950</v>
+      </c>
+      <c r="J44" t="n">
+        <v>510669600</v>
+      </c>
+      <c r="K44" t="n">
+        <v>25134146</v>
+      </c>
+      <c r="L44" t="n">
+        <v>98156640</v>
+      </c>
+      <c r="M44" t="n">
+        <v>114047810</v>
+      </c>
+      <c r="N44" t="n">
+        <v>101988264</v>
+      </c>
+      <c r="O44" t="n">
+        <v>92206950</v>
+      </c>
+      <c r="P44" t="n">
+        <v>155324850</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>121674940</v>
+      </c>
+      <c r="R44" t="n">
+        <v>81600160</v>
+      </c>
+      <c r="S44" t="n">
+        <v>57541348</v>
+      </c>
+      <c r="T44" t="n">
+        <v>36900240</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17046860</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4405840</v>
+      </c>
+      <c r="W44" t="n">
+        <v>360742</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="n">
+        <v>926351300</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26411302</v>
+      </c>
+      <c r="E45" t="n">
+        <v>125293730</v>
+      </c>
+      <c r="F45" t="n">
+        <v>345436740</v>
+      </c>
+      <c r="G45" t="n">
+        <v>523132860</v>
+      </c>
+      <c r="H45" t="n">
+        <v>542339650</v>
+      </c>
+      <c r="I45" t="n">
+        <v>580909300</v>
+      </c>
+      <c r="J45" t="n">
+        <v>523688770</v>
+      </c>
+      <c r="K45" t="n">
+        <v>25367068</v>
+      </c>
+      <c r="L45" t="n">
+        <v>98882430</v>
+      </c>
+      <c r="M45" t="n">
+        <v>115829230</v>
+      </c>
+      <c r="N45" t="n">
+        <v>104313780</v>
+      </c>
+      <c r="O45" t="n">
+        <v>93728280</v>
+      </c>
+      <c r="P45" t="n">
+        <v>158589380</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>124721720</v>
+      </c>
+      <c r="R45" t="n">
+        <v>85032810</v>
+      </c>
+      <c r="S45" t="n">
+        <v>58529788</v>
+      </c>
+      <c r="T45" t="n">
+        <v>37871812</v>
+      </c>
+      <c r="U45" t="n">
+        <v>17513860</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4549013</v>
+      </c>
+      <c r="W45" t="n">
+        <v>372684</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="n">
+        <v>945261950</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26522974</v>
+      </c>
+      <c r="E46" t="n">
+        <v>126061980</v>
+      </c>
+      <c r="F46" t="n">
+        <v>350131230</v>
+      </c>
+      <c r="G46" t="n">
+        <v>531260130</v>
+      </c>
+      <c r="H46" t="n">
+        <v>555426200</v>
+      </c>
+      <c r="I46" t="n">
+        <v>595125250</v>
+      </c>
+      <c r="J46" t="n">
+        <v>536976640</v>
+      </c>
+      <c r="K46" t="n">
+        <v>25488444</v>
+      </c>
+      <c r="L46" t="n">
+        <v>99539010</v>
+      </c>
+      <c r="M46" t="n">
+        <v>117367650</v>
+      </c>
+      <c r="N46" t="n">
+        <v>106701590</v>
+      </c>
+      <c r="O46" t="n">
+        <v>95263640</v>
+      </c>
+      <c r="P46" t="n">
+        <v>161989390</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>127690890</v>
+      </c>
+      <c r="R46" t="n">
+        <v>88660150</v>
+      </c>
+      <c r="S46" t="n">
+        <v>59562096</v>
+      </c>
+      <c r="T46" t="n">
+        <v>38856350</v>
+      </c>
+      <c r="U46" t="n">
+        <v>18011136</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4702275</v>
+      </c>
+      <c r="W46" t="n">
+        <v>389313</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="n">
+        <v>964279100</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26681390</v>
+      </c>
+      <c r="E47" t="n">
+        <v>126923520</v>
+      </c>
+      <c r="F47" t="n">
+        <v>354497920</v>
+      </c>
+      <c r="G47" t="n">
+        <v>539283140</v>
+      </c>
+      <c r="H47" t="n">
+        <v>568890430</v>
+      </c>
+      <c r="I47" t="n">
+        <v>609775200</v>
+      </c>
+      <c r="J47" t="n">
+        <v>550443300</v>
+      </c>
+      <c r="K47" t="n">
+        <v>25627928</v>
+      </c>
+      <c r="L47" t="n">
+        <v>100242136</v>
+      </c>
+      <c r="M47" t="n">
+        <v>118625740</v>
+      </c>
+      <c r="N47" t="n">
+        <v>108948650</v>
+      </c>
+      <c r="O47" t="n">
+        <v>97048136</v>
+      </c>
+      <c r="P47" t="n">
+        <v>165423250</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>130552360</v>
+      </c>
+      <c r="R47" t="n">
+        <v>92419064</v>
+      </c>
+      <c r="S47" t="n">
+        <v>60668464</v>
+      </c>
+      <c r="T47" t="n">
+        <v>39842976</v>
+      </c>
+      <c r="U47" t="n">
+        <v>18541684</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4868035</v>
+      </c>
+      <c r="W47" t="n">
+        <v>411269</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="n">
+        <v>983281200</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26760030</v>
+      </c>
+      <c r="E48" t="n">
+        <v>127731450</v>
+      </c>
+      <c r="F48" t="n">
+        <v>358460030</v>
+      </c>
+      <c r="G48" t="n">
+        <v>547035600</v>
+      </c>
+      <c r="H48" t="n">
+        <v>582689000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>624814500</v>
+      </c>
+      <c r="J48" t="n">
+        <v>563992600</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25816710</v>
+      </c>
+      <c r="L48" t="n">
+        <v>100971420</v>
+      </c>
+      <c r="M48" t="n">
+        <v>119641990</v>
+      </c>
+      <c r="N48" t="n">
+        <v>111086600</v>
+      </c>
+      <c r="O48" t="n">
+        <v>99055130</v>
+      </c>
+      <c r="P48" t="n">
+        <v>168883150</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>133334580</v>
+      </c>
+      <c r="R48" t="n">
+        <v>96249460</v>
+      </c>
+      <c r="S48" t="n">
+        <v>61850450</v>
+      </c>
+      <c r="T48" t="n">
+        <v>40850680</v>
+      </c>
+      <c r="U48" t="n">
+        <v>19106872</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5046476</v>
+      </c>
+      <c r="W48" t="n">
+        <v>437752</v>
+      </c>
+      <c r="X48" t="n">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1002335200</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26808484</v>
+      </c>
+      <c r="E49" t="n">
+        <v>128393650</v>
+      </c>
+      <c r="F49" t="n">
+        <v>362107700</v>
+      </c>
+      <c r="G49" t="n">
+        <v>554520500</v>
+      </c>
+      <c r="H49" t="n">
+        <v>596800700</v>
+      </c>
+      <c r="I49" t="n">
+        <v>640220100</v>
+      </c>
+      <c r="J49" t="n">
+        <v>577877100</v>
+      </c>
+      <c r="K49" t="n">
+        <v>25930114</v>
+      </c>
+      <c r="L49" t="n">
+        <v>101585160</v>
+      </c>
+      <c r="M49" t="n">
+        <v>120604856</v>
+      </c>
+      <c r="N49" t="n">
+        <v>113109200</v>
+      </c>
+      <c r="O49" t="n">
+        <v>101213200</v>
+      </c>
+      <c r="P49" t="n">
+        <v>172310530</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>136138030</v>
+      </c>
+      <c r="R49" t="n">
+        <v>100147210</v>
+      </c>
+      <c r="S49" t="n">
+        <v>63096864</v>
+      </c>
+      <c r="T49" t="n">
+        <v>41900770</v>
+      </c>
+      <c r="U49" t="n">
+        <v>19707416</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5237645</v>
+      </c>
+      <c r="W49" t="n">
+        <v>468440</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1021434560</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26881028</v>
+      </c>
+      <c r="E50" t="n">
+        <v>129043160</v>
+      </c>
+      <c r="F50" t="n">
+        <v>365499700</v>
+      </c>
+      <c r="G50" t="n">
+        <v>561752700</v>
+      </c>
+      <c r="H50" t="n">
+        <v>611160300</v>
+      </c>
+      <c r="I50" t="n">
+        <v>655926600</v>
+      </c>
+      <c r="J50" t="n">
+        <v>592207500</v>
+      </c>
+      <c r="K50" t="n">
+        <v>26013846</v>
+      </c>
+      <c r="L50" t="n">
+        <v>102162136</v>
+      </c>
+      <c r="M50" t="n">
+        <v>121552030</v>
+      </c>
+      <c r="N50" t="n">
+        <v>114904530</v>
+      </c>
+      <c r="O50" t="n">
+        <v>103538296</v>
+      </c>
+      <c r="P50" t="n">
+        <v>175606960</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>139006770</v>
+      </c>
+      <c r="R50" t="n">
+        <v>104060950</v>
+      </c>
+      <c r="S50" t="n">
+        <v>64463116</v>
+      </c>
+      <c r="T50" t="n">
+        <v>42963870</v>
+      </c>
+      <c r="U50" t="n">
+        <v>20343784</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5441204</v>
+      </c>
+      <c r="W50" t="n">
+        <v>501633</v>
+      </c>
+      <c r="X50" t="n">
+        <v>8261</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1040500030</v>
+      </c>
+      <c r="D51" t="n">
+        <v>26930234</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129634770</v>
+      </c>
+      <c r="F51" t="n">
+        <v>368541220</v>
+      </c>
+      <c r="G51" t="n">
+        <v>568681600</v>
+      </c>
+      <c r="H51" t="n">
+        <v>625784960</v>
+      </c>
+      <c r="I51" t="n">
+        <v>671949800</v>
+      </c>
+      <c r="J51" t="n">
+        <v>606934100</v>
+      </c>
+      <c r="K51" t="n">
+        <v>26119478</v>
+      </c>
+      <c r="L51" t="n">
+        <v>102704536</v>
+      </c>
+      <c r="M51" t="n">
+        <v>122450920</v>
+      </c>
+      <c r="N51" t="n">
+        <v>116455520</v>
+      </c>
+      <c r="O51" t="n">
+        <v>105913630</v>
+      </c>
+      <c r="P51" t="n">
+        <v>178970240</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>141913100</v>
+      </c>
+      <c r="R51" t="n">
+        <v>107543860</v>
+      </c>
+      <c r="S51" t="n">
+        <v>66418060</v>
+      </c>
+      <c r="T51" t="n">
+        <v>43984896</v>
+      </c>
+      <c r="U51" t="n">
+        <v>21015008</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5656104</v>
+      </c>
+      <c r="W51" t="n">
+        <v>534931</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1059633660</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27080344</v>
+      </c>
+      <c r="E52" t="n">
+        <v>130222424</v>
+      </c>
+      <c r="F52" t="n">
+        <v>371399580</v>
+      </c>
+      <c r="G52" t="n">
+        <v>575518800</v>
+      </c>
+      <c r="H52" t="n">
+        <v>640617500</v>
+      </c>
+      <c r="I52" t="n">
+        <v>688224400</v>
+      </c>
+      <c r="J52" t="n">
+        <v>621948500</v>
+      </c>
+      <c r="K52" t="n">
+        <v>26202768</v>
+      </c>
+      <c r="L52" t="n">
+        <v>103142080</v>
+      </c>
+      <c r="M52" t="n">
+        <v>123448370</v>
+      </c>
+      <c r="N52" t="n">
+        <v>117728800</v>
+      </c>
+      <c r="O52" t="n">
+        <v>108140930</v>
+      </c>
+      <c r="P52" t="n">
+        <v>182543800</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>144819260</v>
+      </c>
+      <c r="R52" t="n">
+        <v>110610460</v>
+      </c>
+      <c r="S52" t="n">
+        <v>68996664</v>
+      </c>
+      <c r="T52" t="n">
+        <v>44947988</v>
+      </c>
+      <c r="U52" t="n">
+        <v>21716552</v>
+      </c>
+      <c r="V52" t="n">
+        <v>5881163</v>
+      </c>
+      <c r="W52" t="n">
+        <v>567571</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1078970900</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27347082</v>
+      </c>
+      <c r="E53" t="n">
+        <v>130995440</v>
+      </c>
+      <c r="F53" t="n">
+        <v>374160260</v>
+      </c>
+      <c r="G53" t="n">
+        <v>582371700</v>
+      </c>
+      <c r="H53" t="n">
+        <v>655697150</v>
+      </c>
+      <c r="I53" t="n">
+        <v>704800400</v>
+      </c>
+      <c r="J53" t="n">
+        <v>637232830</v>
+      </c>
+      <c r="K53" t="n">
+        <v>26384694</v>
+      </c>
+      <c r="L53" t="n">
+        <v>103648360</v>
+      </c>
+      <c r="M53" t="n">
+        <v>124400330</v>
+      </c>
+      <c r="N53" t="n">
+        <v>118764500</v>
+      </c>
+      <c r="O53" t="n">
+        <v>110258110</v>
+      </c>
+      <c r="P53" t="n">
+        <v>186263550</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>147777420</v>
+      </c>
+      <c r="R53" t="n">
+        <v>113655200</v>
+      </c>
+      <c r="S53" t="n">
+        <v>71811390</v>
+      </c>
+      <c r="T53" t="n">
+        <v>45880676</v>
+      </c>
+      <c r="U53" t="n">
+        <v>22439936</v>
+      </c>
+      <c r="V53" t="n">
+        <v>6114406</v>
+      </c>
+      <c r="W53" t="n">
+        <v>599671</v>
+      </c>
+      <c r="X53" t="n">
+        <v>10267</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1098313100</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27403180</v>
+      </c>
+      <c r="E54" t="n">
+        <v>131768530</v>
+      </c>
+      <c r="F54" t="n">
+        <v>376722100</v>
+      </c>
+      <c r="G54" t="n">
+        <v>589054900</v>
+      </c>
+      <c r="H54" t="n">
+        <v>670914900</v>
+      </c>
+      <c r="I54" t="n">
+        <v>721580100</v>
+      </c>
+      <c r="J54" t="n">
+        <v>652865660</v>
+      </c>
+      <c r="K54" t="n">
+        <v>26679872</v>
+      </c>
+      <c r="L54" t="n">
+        <v>104365340</v>
+      </c>
+      <c r="M54" t="n">
+        <v>125206180</v>
+      </c>
+      <c r="N54" t="n">
+        <v>119747410</v>
+      </c>
+      <c r="O54" t="n">
+        <v>112260030</v>
+      </c>
+      <c r="P54" t="n">
+        <v>190019280</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>150818190</v>
+      </c>
+      <c r="R54" t="n">
+        <v>116651080</v>
+      </c>
+      <c r="S54" t="n">
+        <v>74859790</v>
+      </c>
+      <c r="T54" t="n">
+        <v>46810760</v>
+      </c>
+      <c r="U54" t="n">
+        <v>23176790</v>
+      </c>
+      <c r="V54" t="n">
+        <v>6353672</v>
+      </c>
+      <c r="W54" t="n">
+        <v>630524</v>
+      </c>
+      <c r="X54" t="n">
+        <v>10796</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1117415200</v>
+      </c>
+      <c r="D55" t="n">
+        <v>27208162</v>
+      </c>
+      <c r="E55" t="n">
+        <v>132274584</v>
+      </c>
+      <c r="F55" t="n">
+        <v>378985200</v>
+      </c>
+      <c r="G55" t="n">
+        <v>595381500</v>
+      </c>
+      <c r="H55" t="n">
+        <v>686160450</v>
+      </c>
+      <c r="I55" t="n">
+        <v>738418600</v>
+      </c>
+      <c r="J55" t="n">
+        <v>668783550</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26771622</v>
+      </c>
+      <c r="L55" t="n">
+        <v>105066424</v>
+      </c>
+      <c r="M55" t="n">
+        <v>125994230</v>
+      </c>
+      <c r="N55" t="n">
+        <v>120716390</v>
+      </c>
+      <c r="O55" t="n">
+        <v>114038770</v>
+      </c>
+      <c r="P55" t="n">
+        <v>193778860</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>153949730</v>
+      </c>
+      <c r="R55" t="n">
+        <v>119579290</v>
+      </c>
+      <c r="S55" t="n">
+        <v>78130776</v>
+      </c>
+      <c r="T55" t="n">
+        <v>47762664</v>
+      </c>
+      <c r="U55" t="n">
+        <v>23920602</v>
+      </c>
+      <c r="V55" t="n">
+        <v>6598141</v>
+      </c>
+      <c r="W55" t="n">
+        <v>659761</v>
+      </c>
+      <c r="X55" t="n">
+        <v>11316</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1136264600</v>
+      </c>
+      <c r="D56" t="n">
+        <v>26978472</v>
+      </c>
+      <c r="E56" t="n">
+        <v>132508910</v>
+      </c>
+      <c r="F56" t="n">
+        <v>380871000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>601160640</v>
+      </c>
+      <c r="H56" t="n">
+        <v>701561100</v>
+      </c>
+      <c r="I56" t="n">
+        <v>755381700</v>
+      </c>
+      <c r="J56" t="n">
+        <v>685030340</v>
+      </c>
+      <c r="K56" t="n">
+        <v>26620482</v>
+      </c>
+      <c r="L56" t="n">
+        <v>105530430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>126722810</v>
+      </c>
+      <c r="N56" t="n">
+        <v>121639300</v>
+      </c>
+      <c r="O56" t="n">
+        <v>115583790</v>
+      </c>
+      <c r="P56" t="n">
+        <v>197616340</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>157199730</v>
+      </c>
+      <c r="R56" t="n">
+        <v>122429690</v>
+      </c>
+      <c r="S56" t="n">
+        <v>81592510</v>
+      </c>
+      <c r="T56" t="n">
+        <v>48758828</v>
+      </c>
+      <c r="U56" t="n">
+        <v>24665256</v>
+      </c>
+      <c r="V56" t="n">
+        <v>6848062</v>
+      </c>
+      <c r="W56" t="n">
+        <v>687468</v>
+      </c>
+      <c r="X56" t="n">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1154638700</v>
+      </c>
+      <c r="D57" t="n">
+        <v>26668534</v>
+      </c>
+      <c r="E57" t="n">
+        <v>132290380</v>
+      </c>
+      <c r="F57" t="n">
+        <v>382384800</v>
+      </c>
+      <c r="G57" t="n">
+        <v>606122600</v>
+      </c>
+      <c r="H57" t="n">
+        <v>716911600</v>
+      </c>
+      <c r="I57" t="n">
+        <v>772241400</v>
+      </c>
+      <c r="J57" t="n">
+        <v>701369400</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26432680</v>
+      </c>
+      <c r="L57" t="n">
+        <v>105621860</v>
+      </c>
+      <c r="M57" t="n">
+        <v>127437496</v>
+      </c>
+      <c r="N57" t="n">
+        <v>122656904</v>
+      </c>
+      <c r="O57" t="n">
+        <v>116844990</v>
+      </c>
+      <c r="P57" t="n">
+        <v>201519280</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>160468220</v>
+      </c>
+      <c r="R57" t="n">
+        <v>125178930</v>
+      </c>
+      <c r="S57" t="n">
+        <v>85179850</v>
+      </c>
+      <c r="T57" t="n">
+        <v>49827060</v>
+      </c>
+      <c r="U57" t="n">
+        <v>25406024</v>
+      </c>
+      <c r="V57" t="n">
+        <v>7103935</v>
+      </c>
+      <c r="W57" t="n">
+        <v>713118</v>
+      </c>
+      <c r="X57" t="n">
+        <v>12513</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1172373800</v>
+      </c>
+      <c r="D58" t="n">
+        <v>26281328</v>
+      </c>
+      <c r="E58" t="n">
+        <v>131429420</v>
+      </c>
+      <c r="F58" t="n">
+        <v>383376600</v>
+      </c>
+      <c r="G58" t="n">
+        <v>610169000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>732180100</v>
+      </c>
+      <c r="I58" t="n">
+        <v>788984060</v>
+      </c>
+      <c r="J58" t="n">
+        <v>717576450</v>
+      </c>
+      <c r="K58" t="n">
+        <v>26162966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>105148100</v>
+      </c>
+      <c r="M58" t="n">
+        <v>128322220</v>
+      </c>
+      <c r="N58" t="n">
+        <v>123624960</v>
+      </c>
+      <c r="O58" t="n">
+        <v>117855510</v>
+      </c>
+      <c r="P58" t="n">
+        <v>205467100</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>163743600</v>
+      </c>
+      <c r="R58" t="n">
+        <v>127855624</v>
+      </c>
+      <c r="S58" t="n">
+        <v>88826950</v>
+      </c>
+      <c r="T58" t="n">
+        <v>50972184</v>
+      </c>
+      <c r="U58" t="n">
+        <v>26161732</v>
+      </c>
+      <c r="V58" t="n">
+        <v>7365310</v>
+      </c>
+      <c r="W58" t="n">
+        <v>736073</v>
+      </c>
+      <c r="X58" t="n">
+        <v>13075</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1189691800</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26017712</v>
+      </c>
+      <c r="E59" t="n">
+        <v>130256450</v>
+      </c>
+      <c r="F59" t="n">
+        <v>383911550</v>
+      </c>
+      <c r="G59" t="n">
+        <v>613581950</v>
+      </c>
+      <c r="H59" t="n">
+        <v>747505100</v>
+      </c>
+      <c r="I59" t="n">
+        <v>805766700</v>
+      </c>
+      <c r="J59" t="n">
+        <v>733779650</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25816434</v>
+      </c>
+      <c r="L59" t="n">
+        <v>104238740</v>
+      </c>
+      <c r="M59" t="n">
+        <v>129208520</v>
+      </c>
+      <c r="N59" t="n">
+        <v>124446584</v>
+      </c>
+      <c r="O59" t="n">
+        <v>118814984</v>
+      </c>
+      <c r="P59" t="n">
+        <v>209415840</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>166957470</v>
+      </c>
+      <c r="R59" t="n">
+        <v>130543100</v>
+      </c>
+      <c r="S59" t="n">
+        <v>92512620</v>
+      </c>
+      <c r="T59" t="n">
+        <v>52182120</v>
+      </c>
+      <c r="U59" t="n">
+        <v>26952148</v>
+      </c>
+      <c r="V59" t="n">
+        <v>7631906</v>
+      </c>
+      <c r="W59" t="n">
+        <v>756488</v>
+      </c>
+      <c r="X59" t="n">
+        <v>13566</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1206734800</v>
+      </c>
+      <c r="D60" t="n">
+        <v>25888290</v>
+      </c>
+      <c r="E60" t="n">
+        <v>129143520</v>
+      </c>
+      <c r="F60" t="n">
+        <v>384229660</v>
+      </c>
+      <c r="G60" t="n">
+        <v>616539600</v>
+      </c>
+      <c r="H60" t="n">
+        <v>762763600</v>
+      </c>
+      <c r="I60" t="n">
+        <v>822491200</v>
+      </c>
+      <c r="J60" t="n">
+        <v>749890600</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25589528</v>
+      </c>
+      <c r="L60" t="n">
+        <v>103255230</v>
+      </c>
+      <c r="M60" t="n">
+        <v>129836936</v>
+      </c>
+      <c r="N60" t="n">
+        <v>125249200</v>
+      </c>
+      <c r="O60" t="n">
+        <v>119763500</v>
+      </c>
+      <c r="P60" t="n">
+        <v>213287200</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>170029200</v>
+      </c>
+      <c r="R60" t="n">
+        <v>133285580</v>
+      </c>
+      <c r="S60" t="n">
+        <v>96183930</v>
+      </c>
+      <c r="T60" t="n">
+        <v>53502730</v>
+      </c>
+      <c r="U60" t="n">
+        <v>27759004</v>
+      </c>
+      <c r="V60" t="n">
+        <v>7904850</v>
+      </c>
+      <c r="W60" t="n">
+        <v>775188</v>
+      </c>
+      <c r="X60" t="n">
+        <v>13947</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1223640200</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25836272</v>
+      </c>
+      <c r="E61" t="n">
+        <v>128202320</v>
+      </c>
+      <c r="F61" t="n">
+        <v>384392930</v>
+      </c>
+      <c r="G61" t="n">
+        <v>619080960</v>
+      </c>
+      <c r="H61" t="n">
+        <v>777995650</v>
+      </c>
+      <c r="I61" t="n">
+        <v>839233000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>766032800</v>
+      </c>
+      <c r="K61" t="n">
+        <v>25493904</v>
+      </c>
+      <c r="L61" t="n">
+        <v>102366050</v>
+      </c>
+      <c r="M61" t="n">
+        <v>130196680</v>
+      </c>
+      <c r="N61" t="n">
+        <v>125993940</v>
+      </c>
+      <c r="O61" t="n">
+        <v>120676670</v>
+      </c>
+      <c r="P61" t="n">
+        <v>216988260</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>173186290</v>
+      </c>
+      <c r="R61" t="n">
+        <v>136066300</v>
+      </c>
+      <c r="S61" t="n">
+        <v>99445690</v>
+      </c>
+      <c r="T61" t="n">
+        <v>55345390</v>
+      </c>
+      <c r="U61" t="n">
+        <v>28543492</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8187184</v>
+      </c>
+      <c r="W61" t="n">
+        <v>793741</v>
+      </c>
+      <c r="X61" t="n">
+        <v>14198</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1240613600</v>
+      </c>
+      <c r="D62" t="n">
+        <v>25736150</v>
+      </c>
+      <c r="E62" t="n">
+        <v>127471360</v>
+      </c>
+      <c r="F62" t="n">
+        <v>384325900</v>
+      </c>
+      <c r="G62" t="n">
+        <v>621318460</v>
+      </c>
+      <c r="H62" t="n">
+        <v>793438400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>856273340</v>
+      </c>
+      <c r="J62" t="n">
+        <v>782497540</v>
+      </c>
+      <c r="K62" t="n">
+        <v>25476430</v>
+      </c>
+      <c r="L62" t="n">
+        <v>101735210</v>
+      </c>
+      <c r="M62" t="n">
+        <v>130119500</v>
+      </c>
+      <c r="N62" t="n">
+        <v>126735016</v>
+      </c>
+      <c r="O62" t="n">
+        <v>121723860</v>
+      </c>
+      <c r="P62" t="n">
+        <v>220392600</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>176629630</v>
+      </c>
+      <c r="R62" t="n">
+        <v>138869600</v>
+      </c>
+      <c r="S62" t="n">
+        <v>102326340</v>
+      </c>
+      <c r="T62" t="n">
+        <v>57736708</v>
+      </c>
+      <c r="U62" t="n">
+        <v>29295750</v>
+      </c>
+      <c r="V62" t="n">
+        <v>8483899</v>
+      </c>
+      <c r="W62" t="n">
+        <v>814937</v>
+      </c>
+      <c r="X62" t="n">
+        <v>14423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1257621200</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25533450</v>
+      </c>
+      <c r="E63" t="n">
+        <v>126921280</v>
+      </c>
+      <c r="F63" t="n">
+        <v>383999870</v>
+      </c>
+      <c r="G63" t="n">
+        <v>623127500</v>
+      </c>
+      <c r="H63" t="n">
+        <v>809037500</v>
+      </c>
+      <c r="I63" t="n">
+        <v>873606500</v>
+      </c>
+      <c r="J63" t="n">
+        <v>799250000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25410502</v>
+      </c>
+      <c r="L63" t="n">
+        <v>101387830</v>
+      </c>
+      <c r="M63" t="n">
+        <v>129421820</v>
+      </c>
+      <c r="N63" t="n">
+        <v>127656776</v>
+      </c>
+      <c r="O63" t="n">
+        <v>122759944</v>
+      </c>
+      <c r="P63" t="n">
+        <v>223597390</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>180302720</v>
+      </c>
+      <c r="R63" t="n">
+        <v>141745170</v>
+      </c>
+      <c r="S63" t="n">
+        <v>105186780</v>
+      </c>
+      <c r="T63" t="n">
+        <v>60329756</v>
+      </c>
+      <c r="U63" t="n">
+        <v>30039766</v>
+      </c>
+      <c r="V63" t="n">
+        <v>8802541</v>
+      </c>
+      <c r="W63" t="n">
+        <v>842454</v>
+      </c>
+      <c r="X63" t="n">
+        <v>14786</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1274487200</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25295482</v>
+      </c>
+      <c r="E64" t="n">
+        <v>126385850</v>
+      </c>
+      <c r="F64" t="n">
+        <v>383387680</v>
+      </c>
+      <c r="G64" t="n">
+        <v>624497000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>824603970</v>
+      </c>
+      <c r="I64" t="n">
+        <v>891084100</v>
+      </c>
+      <c r="J64" t="n">
+        <v>816203200</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25238794</v>
+      </c>
+      <c r="L64" t="n">
+        <v>101090370</v>
+      </c>
+      <c r="M64" t="n">
+        <v>128417280</v>
+      </c>
+      <c r="N64" t="n">
+        <v>128584550</v>
+      </c>
+      <c r="O64" t="n">
+        <v>123657016</v>
+      </c>
+      <c r="P64" t="n">
+        <v>226711440</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>184055780</v>
+      </c>
+      <c r="R64" t="n">
+        <v>144705260</v>
+      </c>
+      <c r="S64" t="n">
+        <v>108002050</v>
+      </c>
+      <c r="T64" t="n">
+        <v>63119016</v>
+      </c>
+      <c r="U64" t="n">
+        <v>30799500</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9153710</v>
+      </c>
+      <c r="W64" t="n">
+        <v>880332</v>
+      </c>
+      <c r="X64" t="n">
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1291132000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>25040144</v>
+      </c>
+      <c r="E65" t="n">
+        <v>125709000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>382437100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>625502660</v>
+      </c>
+      <c r="H65" t="n">
+        <v>840060500</v>
+      </c>
+      <c r="I65" t="n">
+        <v>908678500</v>
+      </c>
+      <c r="J65" t="n">
+        <v>833362500</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25028124</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100668856</v>
+      </c>
+      <c r="M65" t="n">
+        <v>127470420</v>
+      </c>
+      <c r="N65" t="n">
+        <v>129257660</v>
+      </c>
+      <c r="O65" t="n">
+        <v>124527700</v>
+      </c>
+      <c r="P65" t="n">
+        <v>229629580</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>187838050</v>
+      </c>
+      <c r="R65" t="n">
+        <v>147755800</v>
+      </c>
+      <c r="S65" t="n">
+        <v>110758180</v>
+      </c>
+      <c r="T65" t="n">
+        <v>66090604</v>
+      </c>
+      <c r="U65" t="n">
+        <v>31597426</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9548595</v>
+      </c>
+      <c r="W65" t="n">
+        <v>932555</v>
+      </c>
+      <c r="X65" t="n">
+        <v>16485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1307246500</v>
+      </c>
+      <c r="D66" t="n">
+        <v>24528678</v>
+      </c>
+      <c r="E66" t="n">
+        <v>124555260</v>
+      </c>
+      <c r="F66" t="n">
+        <v>380905180</v>
+      </c>
+      <c r="G66" t="n">
+        <v>625804400</v>
+      </c>
+      <c r="H66" t="n">
+        <v>854999400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>926323260</v>
+      </c>
+      <c r="J66" t="n">
+        <v>850612200</v>
+      </c>
+      <c r="K66" t="n">
+        <v>24797486</v>
+      </c>
+      <c r="L66" t="n">
+        <v>100026590</v>
+      </c>
+      <c r="M66" t="n">
+        <v>126687690</v>
+      </c>
+      <c r="N66" t="n">
+        <v>129662220</v>
+      </c>
+      <c r="O66" t="n">
+        <v>125324180</v>
+      </c>
+      <c r="P66" t="n">
+        <v>232277800</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>191693840</v>
+      </c>
+      <c r="R66" t="n">
+        <v>150918830</v>
+      </c>
+      <c r="S66" t="n">
+        <v>113446056</v>
+      </c>
+      <c r="T66" t="n">
+        <v>69211480</v>
+      </c>
+      <c r="U66" t="n">
+        <v>32455912</v>
+      </c>
+      <c r="V66" t="n">
+        <v>9993223</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1001931</v>
+      </c>
+      <c r="X66" t="n">
+        <v>18104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1322866600</v>
+      </c>
+      <c r="D67" t="n">
+        <v>24119940</v>
+      </c>
+      <c r="E67" t="n">
+        <v>123077610</v>
+      </c>
+      <c r="F67" t="n">
+        <v>378793180</v>
+      </c>
+      <c r="G67" t="n">
+        <v>625572740</v>
+      </c>
+      <c r="H67" t="n">
+        <v>869459800</v>
+      </c>
+      <c r="I67" t="n">
+        <v>944053000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>867862140</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24310256</v>
+      </c>
+      <c r="L67" t="n">
+        <v>98957660</v>
+      </c>
+      <c r="M67" t="n">
+        <v>126093064</v>
+      </c>
+      <c r="N67" t="n">
+        <v>129622510</v>
+      </c>
+      <c r="O67" t="n">
+        <v>126090536</v>
+      </c>
+      <c r="P67" t="n">
+        <v>234736130</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>195649650</v>
+      </c>
+      <c r="R67" t="n">
+        <v>154129940</v>
+      </c>
+      <c r="S67" t="n">
+        <v>116054920</v>
+      </c>
+      <c r="T67" t="n">
+        <v>72422140</v>
+      </c>
+      <c r="U67" t="n">
+        <v>33396610</v>
+      </c>
+      <c r="V67" t="n">
+        <v>10484091</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1088980</v>
+      </c>
+      <c r="X67" t="n">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1338636300</v>
+      </c>
+      <c r="D68" t="n">
+        <v>24099908</v>
+      </c>
+      <c r="E68" t="n">
+        <v>121782720</v>
+      </c>
+      <c r="F68" t="n">
+        <v>376404900</v>
+      </c>
+      <c r="G68" t="n">
+        <v>625246600</v>
+      </c>
+      <c r="H68" t="n">
+        <v>884115140</v>
+      </c>
+      <c r="I68" t="n">
+        <v>962208300</v>
+      </c>
+      <c r="J68" t="n">
+        <v>885344830</v>
+      </c>
+      <c r="K68" t="n">
+        <v>23926576</v>
+      </c>
+      <c r="L68" t="n">
+        <v>97682820</v>
+      </c>
+      <c r="M68" t="n">
+        <v>125661080</v>
+      </c>
+      <c r="N68" t="n">
+        <v>128961080</v>
+      </c>
+      <c r="O68" t="n">
+        <v>127048696</v>
+      </c>
+      <c r="P68" t="n">
+        <v>237010770</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>199786580</v>
+      </c>
+      <c r="R68" t="n">
+        <v>157433090</v>
+      </c>
+      <c r="S68" t="n">
+        <v>118632010</v>
+      </c>
+      <c r="T68" t="n">
+        <v>75660310</v>
+      </c>
+      <c r="U68" t="n">
+        <v>34424560</v>
+      </c>
+      <c r="V68" t="n">
+        <v>11020650</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1191660</v>
+      </c>
+      <c r="X68" t="n">
+        <v>23151</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1354195700</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23854890</v>
+      </c>
+      <c r="E69" t="n">
+        <v>120474770</v>
+      </c>
+      <c r="F69" t="n">
+        <v>373697380</v>
+      </c>
+      <c r="G69" t="n">
+        <v>624483460</v>
+      </c>
+      <c r="H69" t="n">
+        <v>898694140</v>
+      </c>
+      <c r="I69" t="n">
+        <v>980471900</v>
+      </c>
+      <c r="J69" t="n">
+        <v>902925100</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23925536</v>
+      </c>
+      <c r="L69" t="n">
+        <v>96619880</v>
+      </c>
+      <c r="M69" t="n">
+        <v>125232320</v>
+      </c>
+      <c r="N69" t="n">
+        <v>127990270</v>
+      </c>
+      <c r="O69" t="n">
+        <v>128018690</v>
+      </c>
+      <c r="P69" t="n">
+        <v>239144690</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>204002600</v>
+      </c>
+      <c r="R69" t="n">
+        <v>160734130</v>
+      </c>
+      <c r="S69" t="n">
+        <v>121246190</v>
+      </c>
+      <c r="T69" t="n">
+        <v>78898120</v>
+      </c>
+      <c r="U69" t="n">
+        <v>35527560</v>
+      </c>
+      <c r="V69" t="n">
+        <v>11594400</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1305493</v>
+      </c>
+      <c r="X69" t="n">
+        <v>26461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1369003300</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23581330</v>
+      </c>
+      <c r="E70" t="n">
+        <v>119121976</v>
+      </c>
+      <c r="F70" t="n">
+        <v>370831170</v>
+      </c>
+      <c r="G70" t="n">
+        <v>623163840</v>
+      </c>
+      <c r="H70" t="n">
+        <v>912553700</v>
+      </c>
+      <c r="I70" t="n">
+        <v>998142100</v>
+      </c>
+      <c r="J70" t="n">
+        <v>920259500</v>
+      </c>
+      <c r="K70" t="n">
+        <v>23693076</v>
+      </c>
+      <c r="L70" t="n">
+        <v>95540640</v>
+      </c>
+      <c r="M70" t="n">
+        <v>124645760</v>
+      </c>
+      <c r="N70" t="n">
+        <v>127063430</v>
+      </c>
+      <c r="O70" t="n">
+        <v>128689820</v>
+      </c>
+      <c r="P70" t="n">
+        <v>241113040</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>208106510</v>
+      </c>
+      <c r="R70" t="n">
+        <v>163903120</v>
+      </c>
+      <c r="S70" t="n">
+        <v>123921464</v>
+      </c>
+      <c r="T70" t="n">
+        <v>82088490</v>
+      </c>
+      <c r="U70" t="n">
+        <v>36722890</v>
+      </c>
+      <c r="V70" t="n">
+        <v>12172201</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1424518</v>
+      </c>
+      <c r="X70" t="n">
+        <v>30085</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1383112100</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23279278</v>
+      </c>
+      <c r="E71" t="n">
+        <v>117955890</v>
+      </c>
+      <c r="F71" t="n">
+        <v>367825250</v>
+      </c>
+      <c r="G71" t="n">
+        <v>621302340</v>
+      </c>
+      <c r="H71" t="n">
+        <v>925771460</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1015252900</v>
+      </c>
+      <c r="J71" t="n">
+        <v>937515100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>23432014</v>
+      </c>
+      <c r="L71" t="n">
+        <v>94676610</v>
+      </c>
+      <c r="M71" t="n">
+        <v>123575160</v>
+      </c>
+      <c r="N71" t="n">
+        <v>126294216</v>
+      </c>
+      <c r="O71" t="n">
+        <v>129072030</v>
+      </c>
+      <c r="P71" t="n">
+        <v>242884540</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>212005310</v>
+      </c>
+      <c r="R71" t="n">
+        <v>167151980</v>
+      </c>
+      <c r="S71" t="n">
+        <v>126642110</v>
+      </c>
+      <c r="T71" t="n">
+        <v>84925100</v>
+      </c>
+      <c r="U71" t="n">
+        <v>38309696</v>
+      </c>
+      <c r="V71" t="n">
+        <v>12717737</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1544402</v>
+      </c>
+      <c r="X71" t="n">
+        <v>33871</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1396387100</v>
+      </c>
+      <c r="D72" t="n">
+        <v>22805892</v>
+      </c>
+      <c r="E72" t="n">
+        <v>116723900</v>
+      </c>
+      <c r="F72" t="n">
+        <v>364629250</v>
+      </c>
+      <c r="G72" t="n">
+        <v>618883840</v>
+      </c>
+      <c r="H72" t="n">
+        <v>938586430</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1031720500</v>
+      </c>
+      <c r="J72" t="n">
+        <v>954460100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>23146488</v>
+      </c>
+      <c r="L72" t="n">
+        <v>93918020</v>
+      </c>
+      <c r="M72" t="n">
+        <v>122184060</v>
+      </c>
+      <c r="N72" t="n">
+        <v>125721290</v>
+      </c>
+      <c r="O72" t="n">
+        <v>129051980</v>
+      </c>
+      <c r="P72" t="n">
+        <v>244835570</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>215589940</v>
+      </c>
+      <c r="R72" t="n">
+        <v>170643170</v>
+      </c>
+      <c r="S72" t="n">
+        <v>129328330</v>
+      </c>
+      <c r="T72" t="n">
+        <v>87312904</v>
+      </c>
+      <c r="U72" t="n">
+        <v>40177864</v>
+      </c>
+      <c r="V72" t="n">
+        <v>13135486</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1645240</v>
+      </c>
+      <c r="X72" t="n">
+        <v>37375</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1407563900</v>
+      </c>
+      <c r="D73" t="n">
+        <v>22600596</v>
+      </c>
+      <c r="E73" t="n">
+        <v>115307420</v>
+      </c>
+      <c r="F73" t="n">
+        <v>361569250</v>
+      </c>
+      <c r="G73" t="n">
+        <v>616154900</v>
+      </c>
+      <c r="H73" t="n">
+        <v>950245570</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1045955200</v>
+      </c>
+      <c r="J73" t="n">
+        <v>969360640</v>
+      </c>
+      <c r="K73" t="n">
+        <v>22686848</v>
+      </c>
+      <c r="L73" t="n">
+        <v>92706830</v>
+      </c>
+      <c r="M73" t="n">
+        <v>120955410</v>
+      </c>
+      <c r="N73" t="n">
+        <v>125306400</v>
+      </c>
+      <c r="O73" t="n">
+        <v>128411740</v>
+      </c>
+      <c r="P73" t="n">
+        <v>246912060</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>218841600</v>
+      </c>
+      <c r="R73" t="n">
+        <v>174184980</v>
+      </c>
+      <c r="S73" t="n">
+        <v>131806584</v>
+      </c>
+      <c r="T73" t="n">
+        <v>89232770</v>
+      </c>
+      <c r="U73" t="n">
+        <v>41709948</v>
+      </c>
+      <c r="V73" t="n">
+        <v>13179305</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1676180</v>
+      </c>
+      <c r="X73" t="n">
+        <v>39419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
